--- a/data/georgia_census/imereti/kutaisi/age_dependency.xlsx
+++ b/data/georgia_census/imereti/kutaisi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20266C3A-6AA2-4CE3-AA31-64CCF47E646D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD892A63-116B-4860-AC59-B6809ED08C0F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7CC4437-9ED9-4A2B-AD9D-D9BE3DD95D7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BADFFA-7A72-42E9-B659-70549226124F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9020CBBF-01DA-40C6-B253-48D3AE2F4F91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF48BB1-27CF-4EF7-98A7-3022D67DFFE7}"/>
 </file>